--- a/results/20250402/evaluation_VirusPseAAC_noisy_0.3.xlsx
+++ b/results/20250402/evaluation_VirusPseAAC_noisy_0.3.xlsx
@@ -1473,10 +1473,10 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>0.43319</v>
+        <v>0.58336</v>
       </c>
       <c r="I26" t="n">
-        <v>0.09643</v>
+        <v>0.02851</v>
       </c>
     </row>
     <row r="27">
@@ -1512,10 +1512,10 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>0.20172</v>
+        <v>0.01837</v>
       </c>
       <c r="I27" t="n">
-        <v>0.09808</v>
+        <v>0.02395</v>
       </c>
     </row>
     <row r="28">
@@ -1553,10 +1553,10 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>0.40363</v>
+        <v>0.5910300000000001</v>
       </c>
       <c r="I28" t="n">
-        <v>0.1088</v>
+        <v>0.02481</v>
       </c>
     </row>
     <row r="29">
@@ -1594,10 +1594,10 @@
         </is>
       </c>
       <c r="H29" t="n">
-        <v>0.19796</v>
+        <v>0.03089</v>
       </c>
       <c r="I29" t="n">
-        <v>0.10688</v>
+        <v>0.02935</v>
       </c>
     </row>
     <row r="30">
@@ -1633,10 +1633,10 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>0.43439</v>
+        <v>0.58356</v>
       </c>
       <c r="I30" t="n">
-        <v>0.09712999999999999</v>
+        <v>0.02713</v>
       </c>
     </row>
     <row r="31">
@@ -1672,10 +1672,10 @@
         </is>
       </c>
       <c r="H31" t="n">
-        <v>0.20084</v>
+        <v>0.01935</v>
       </c>
       <c r="I31" t="n">
-        <v>0.1015</v>
+        <v>0.02368</v>
       </c>
     </row>
     <row r="32">
@@ -1713,10 +1713,10 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>0.40289</v>
+        <v>0.59414</v>
       </c>
       <c r="I32" t="n">
-        <v>0.10804</v>
+        <v>0.02651</v>
       </c>
     </row>
     <row r="33">
@@ -1754,10 +1754,10 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>0.19889</v>
+        <v>0.03858</v>
       </c>
       <c r="I33" t="n">
-        <v>0.10543</v>
+        <v>0.03193</v>
       </c>
     </row>
     <row r="34">
@@ -1793,10 +1793,10 @@
         </is>
       </c>
       <c r="H34" t="n">
-        <v>0.72311</v>
+        <v>0.61552</v>
       </c>
       <c r="I34" t="n">
-        <v>0.08683</v>
+        <v>0.01264</v>
       </c>
     </row>
     <row r="35">
@@ -1832,10 +1832,10 @@
         </is>
       </c>
       <c r="H35" t="n">
-        <v>0.53814</v>
+        <v>0.00098</v>
       </c>
       <c r="I35" t="n">
-        <v>0.13747</v>
+        <v>0.00478</v>
       </c>
     </row>
     <row r="36">
@@ -1873,10 +1873,10 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>0.72292</v>
+        <v>0.61578</v>
       </c>
       <c r="I36" t="n">
-        <v>0.08690000000000001</v>
+        <v>0.01244</v>
       </c>
     </row>
     <row r="37">
@@ -1914,10 +1914,10 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>0.53814</v>
+        <v>0.00098</v>
       </c>
       <c r="I37" t="n">
-        <v>0.13953</v>
+        <v>0.00478</v>
       </c>
     </row>
     <row r="38">
@@ -1953,10 +1953,10 @@
         </is>
       </c>
       <c r="H38" t="n">
-        <v>0.7229100000000001</v>
+        <v>0.61558</v>
       </c>
       <c r="I38" t="n">
-        <v>0.08717999999999999</v>
+        <v>0.01279</v>
       </c>
     </row>
     <row r="39">
@@ -1992,10 +1992,10 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>0.53812</v>
+        <v>0.00098</v>
       </c>
       <c r="I39" t="n">
-        <v>0.1387</v>
+        <v>0.00478</v>
       </c>
     </row>
     <row r="40">
@@ -2033,10 +2033,10 @@
         </is>
       </c>
       <c r="H40" t="n">
-        <v>0.72271</v>
+        <v>0.6158400000000001</v>
       </c>
       <c r="I40" t="n">
-        <v>0.08724</v>
+        <v>0.01262</v>
       </c>
     </row>
     <row r="41">
@@ -2074,10 +2074,10 @@
         </is>
       </c>
       <c r="H41" t="n">
-        <v>0.53812</v>
+        <v>0.00098</v>
       </c>
       <c r="I41" t="n">
-        <v>0.14074</v>
+        <v>0.00478</v>
       </c>
     </row>
     <row r="42">
@@ -3073,10 +3073,10 @@
         </is>
       </c>
       <c r="H66" t="n">
-        <v>0.48938</v>
+        <v>0.50317</v>
       </c>
       <c r="I66" t="n">
-        <v>0.06451999999999999</v>
+        <v>0.03149</v>
       </c>
     </row>
     <row r="67">
@@ -3112,10 +3112,10 @@
         </is>
       </c>
       <c r="H67" t="n">
-        <v>0.22053</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>0.07035</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -3153,10 +3153,10 @@
         </is>
       </c>
       <c r="H68" t="n">
-        <v>0.41453</v>
+        <v>0.54526</v>
       </c>
       <c r="I68" t="n">
-        <v>0.07122000000000001</v>
+        <v>0.02806</v>
       </c>
     </row>
     <row r="69">
@@ -3194,10 +3194,10 @@
         </is>
       </c>
       <c r="H69" t="n">
-        <v>0.16156</v>
+        <v>0.009639999999999999</v>
       </c>
       <c r="I69" t="n">
-        <v>0.06368</v>
+        <v>0.01797</v>
       </c>
     </row>
     <row r="70">
@@ -3233,10 +3233,10 @@
         </is>
       </c>
       <c r="H70" t="n">
-        <v>0.49168</v>
+        <v>0.5081</v>
       </c>
       <c r="I70" t="n">
-        <v>0.05611</v>
+        <v>0.02999</v>
       </c>
     </row>
     <row r="71">
@@ -3272,10 +3272,10 @@
         </is>
       </c>
       <c r="H71" t="n">
-        <v>0.21652</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>0.06131</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -3313,10 +3313,10 @@
         </is>
       </c>
       <c r="H72" t="n">
-        <v>0.40876</v>
+        <v>0.54813</v>
       </c>
       <c r="I72" t="n">
-        <v>0.06823</v>
+        <v>0.02912</v>
       </c>
     </row>
     <row r="73">
@@ -3354,10 +3354,10 @@
         </is>
       </c>
       <c r="H73" t="n">
-        <v>0.1577</v>
+        <v>0.01454</v>
       </c>
       <c r="I73" t="n">
-        <v>0.07117999999999999</v>
+        <v>0.01929</v>
       </c>
     </row>
     <row r="74">
@@ -3393,10 +3393,10 @@
         </is>
       </c>
       <c r="H74" t="n">
-        <v>0.56124</v>
+        <v>0.56064</v>
       </c>
       <c r="I74" t="n">
-        <v>0.08248</v>
+        <v>0.02111</v>
       </c>
     </row>
     <row r="75">
@@ -3432,10 +3432,10 @@
         </is>
       </c>
       <c r="H75" t="n">
-        <v>0.29591</v>
+        <v>0.0029</v>
       </c>
       <c r="I75" t="n">
-        <v>0.09748</v>
+        <v>0.007860000000000001</v>
       </c>
     </row>
     <row r="76">
@@ -3473,10 +3473,10 @@
         </is>
       </c>
       <c r="H76" t="n">
-        <v>0.5258</v>
+        <v>0.57012</v>
       </c>
       <c r="I76" t="n">
-        <v>0.08663</v>
+        <v>0.01988</v>
       </c>
     </row>
     <row r="77">
@@ -3514,10 +3514,10 @@
         </is>
       </c>
       <c r="H77" t="n">
-        <v>0.26511</v>
+        <v>0.00388</v>
       </c>
       <c r="I77" t="n">
-        <v>0.11095</v>
+        <v>0.00889</v>
       </c>
     </row>
     <row r="78">
@@ -3553,10 +3553,10 @@
         </is>
       </c>
       <c r="H78" t="n">
-        <v>0.56182</v>
+        <v>0.56065</v>
       </c>
       <c r="I78" t="n">
-        <v>0.08205</v>
+        <v>0.0214</v>
       </c>
     </row>
     <row r="79">
@@ -3592,10 +3592,10 @@
         </is>
       </c>
       <c r="H79" t="n">
-        <v>0.29686</v>
+        <v>0.0029</v>
       </c>
       <c r="I79" t="n">
-        <v>0.0968</v>
+        <v>0.007860000000000001</v>
       </c>
     </row>
     <row r="80">
@@ -3633,10 +3633,10 @@
         </is>
       </c>
       <c r="H80" t="n">
-        <v>0.52785</v>
+        <v>0.57064</v>
       </c>
       <c r="I80" t="n">
-        <v>0.08419</v>
+        <v>0.01981</v>
       </c>
     </row>
     <row r="81">
@@ -3674,10 +3674,10 @@
         </is>
       </c>
       <c r="H81" t="n">
-        <v>0.26704</v>
+        <v>0.00388</v>
       </c>
       <c r="I81" t="n">
-        <v>0.10659</v>
+        <v>0.00889</v>
       </c>
     </row>
     <row r="82">
@@ -4673,10 +4673,10 @@
         </is>
       </c>
       <c r="H106" t="n">
-        <v>0.37978</v>
+        <v>0.58602</v>
       </c>
       <c r="I106" t="n">
-        <v>0.14099</v>
+        <v>0.02371</v>
       </c>
     </row>
     <row r="107">
@@ -4712,10 +4712,10 @@
         </is>
       </c>
       <c r="H107" t="n">
-        <v>0.17456</v>
+        <v>0.02019</v>
       </c>
       <c r="I107" t="n">
-        <v>0.14582</v>
+        <v>0.02204</v>
       </c>
     </row>
     <row r="108">
@@ -4753,10 +4753,10 @@
         </is>
       </c>
       <c r="H108" t="n">
-        <v>0.33602</v>
+        <v>0.59419</v>
       </c>
       <c r="I108" t="n">
-        <v>0.16225</v>
+        <v>0.01727</v>
       </c>
     </row>
     <row r="109">
@@ -4794,10 +4794,10 @@
         </is>
       </c>
       <c r="H109" t="n">
-        <v>0.15626</v>
+        <v>0.05593</v>
       </c>
       <c r="I109" t="n">
-        <v>0.15582</v>
+        <v>0.03891</v>
       </c>
     </row>
     <row r="110">
@@ -4833,10 +4833,10 @@
         </is>
       </c>
       <c r="H110" t="n">
-        <v>0.38228</v>
+        <v>0.5860300000000001</v>
       </c>
       <c r="I110" t="n">
-        <v>0.14416</v>
+        <v>0.02272</v>
       </c>
     </row>
     <row r="111">
@@ -4872,10 +4872,10 @@
         </is>
       </c>
       <c r="H111" t="n">
-        <v>0.17744</v>
+        <v>0.01923</v>
       </c>
       <c r="I111" t="n">
-        <v>0.14815</v>
+        <v>0.02025</v>
       </c>
     </row>
     <row r="112">
@@ -4913,10 +4913,10 @@
         </is>
       </c>
       <c r="H112" t="n">
-        <v>0.33377</v>
+        <v>0.59631</v>
       </c>
       <c r="I112" t="n">
-        <v>0.16351</v>
+        <v>0.01748</v>
       </c>
     </row>
     <row r="113">
@@ -4954,10 +4954,10 @@
         </is>
       </c>
       <c r="H113" t="n">
-        <v>0.15721</v>
+        <v>0.05974</v>
       </c>
       <c r="I113" t="n">
-        <v>0.15716</v>
+        <v>0.04347</v>
       </c>
     </row>
     <row r="114">
@@ -4993,10 +4993,10 @@
         </is>
       </c>
       <c r="H114" t="n">
-        <v>0.69783</v>
+        <v>0.61519</v>
       </c>
       <c r="I114" t="n">
-        <v>0.10025</v>
+        <v>0.01672</v>
       </c>
     </row>
     <row r="115">
@@ -5032,10 +5032,10 @@
         </is>
       </c>
       <c r="H115" t="n">
-        <v>0.5331900000000001</v>
+        <v>0.00479</v>
       </c>
       <c r="I115" t="n">
-        <v>0.13747</v>
+        <v>0.00957</v>
       </c>
     </row>
     <row r="116">
@@ -5073,10 +5073,10 @@
         </is>
       </c>
       <c r="H116" t="n">
-        <v>0.69656</v>
+        <v>0.61615</v>
       </c>
       <c r="I116" t="n">
-        <v>0.10222</v>
+        <v>0.01646</v>
       </c>
     </row>
     <row r="117">
@@ -5114,10 +5114,10 @@
         </is>
       </c>
       <c r="H117" t="n">
-        <v>0.5331900000000001</v>
+        <v>0.00574</v>
       </c>
       <c r="I117" t="n">
-        <v>0.13747</v>
+        <v>0.01223</v>
       </c>
     </row>
     <row r="118">
@@ -5153,10 +5153,10 @@
         </is>
       </c>
       <c r="H118" t="n">
-        <v>0.69783</v>
+        <v>0.61519</v>
       </c>
       <c r="I118" t="n">
-        <v>0.10025</v>
+        <v>0.01672</v>
       </c>
     </row>
     <row r="119">
@@ -5192,10 +5192,10 @@
         </is>
       </c>
       <c r="H119" t="n">
-        <v>0.5331900000000001</v>
+        <v>0.00479</v>
       </c>
       <c r="I119" t="n">
-        <v>0.13747</v>
+        <v>0.00957</v>
       </c>
     </row>
     <row r="120">
@@ -5233,10 +5233,10 @@
         </is>
       </c>
       <c r="H120" t="n">
-        <v>0.69656</v>
+        <v>0.61615</v>
       </c>
       <c r="I120" t="n">
-        <v>0.10222</v>
+        <v>0.01646</v>
       </c>
     </row>
     <row r="121">
@@ -5274,10 +5274,10 @@
         </is>
       </c>
       <c r="H121" t="n">
-        <v>0.5331900000000001</v>
+        <v>0.00574</v>
       </c>
       <c r="I121" t="n">
-        <v>0.13747</v>
+        <v>0.01223</v>
       </c>
     </row>
     <row r="122">
@@ -6273,10 +6273,10 @@
         </is>
       </c>
       <c r="H146" t="n">
-        <v>0.44829</v>
+        <v>0.50785</v>
       </c>
       <c r="I146" t="n">
-        <v>0.07371999999999999</v>
+        <v>0.04348</v>
       </c>
     </row>
     <row r="147">
@@ -6312,10 +6312,10 @@
         </is>
       </c>
       <c r="H147" t="n">
-        <v>0.19375</v>
+        <v>0.008710000000000001</v>
       </c>
       <c r="I147" t="n">
-        <v>0.07686999999999999</v>
+        <v>0.02158</v>
       </c>
     </row>
     <row r="148">
@@ -6353,10 +6353,10 @@
         </is>
       </c>
       <c r="H148" t="n">
-        <v>0.36763</v>
+        <v>0.54376</v>
       </c>
       <c r="I148" t="n">
-        <v>0.06753000000000001</v>
+        <v>0.03925</v>
       </c>
     </row>
     <row r="149">
@@ -6394,10 +6394,10 @@
         </is>
       </c>
       <c r="H149" t="n">
-        <v>0.14081</v>
+        <v>0.01738</v>
       </c>
       <c r="I149" t="n">
-        <v>0.05652</v>
+        <v>0.02607</v>
       </c>
     </row>
     <row r="150">
@@ -6433,10 +6433,10 @@
         </is>
       </c>
       <c r="H150" t="n">
-        <v>0.45278</v>
+        <v>0.50828</v>
       </c>
       <c r="I150" t="n">
-        <v>0.07289</v>
+        <v>0.04328</v>
       </c>
     </row>
     <row r="151">
@@ -6472,10 +6472,10 @@
         </is>
       </c>
       <c r="H151" t="n">
-        <v>0.19563</v>
+        <v>0.008710000000000001</v>
       </c>
       <c r="I151" t="n">
-        <v>0.07989</v>
+        <v>0.02158</v>
       </c>
     </row>
     <row r="152">
@@ -6513,10 +6513,10 @@
         </is>
       </c>
       <c r="H152" t="n">
-        <v>0.35643</v>
+        <v>0.54843</v>
       </c>
       <c r="I152" t="n">
-        <v>0.06748999999999999</v>
+        <v>0.0387</v>
       </c>
     </row>
     <row r="153">
@@ -6554,10 +6554,10 @@
         </is>
       </c>
       <c r="H153" t="n">
-        <v>0.13884</v>
+        <v>0.02794</v>
       </c>
       <c r="I153" t="n">
-        <v>0.05588</v>
+        <v>0.02871</v>
       </c>
     </row>
     <row r="154">
@@ -6593,10 +6593,10 @@
         </is>
       </c>
       <c r="H154" t="n">
-        <v>0.5140400000000001</v>
+        <v>0.56306</v>
       </c>
       <c r="I154" t="n">
-        <v>0.08432000000000001</v>
+        <v>0.03087</v>
       </c>
     </row>
     <row r="155">
@@ -6632,10 +6632,10 @@
         </is>
       </c>
       <c r="H155" t="n">
-        <v>0.25173</v>
+        <v>0.00581</v>
       </c>
       <c r="I155" t="n">
-        <v>0.08891</v>
+        <v>0.0158</v>
       </c>
     </row>
     <row r="156">
@@ -6673,10 +6673,10 @@
         </is>
       </c>
       <c r="H156" t="n">
-        <v>0.48487</v>
+        <v>0.57157</v>
       </c>
       <c r="I156" t="n">
-        <v>0.08699</v>
+        <v>0.02729</v>
       </c>
     </row>
     <row r="157">
@@ -6714,10 +6714,10 @@
         </is>
       </c>
       <c r="H157" t="n">
-        <v>0.23052</v>
+        <v>0.00678</v>
       </c>
       <c r="I157" t="n">
-        <v>0.08179</v>
+        <v>0.01616</v>
       </c>
     </row>
     <row r="158">
@@ -6753,10 +6753,10 @@
         </is>
       </c>
       <c r="H158" t="n">
-        <v>0.5143</v>
+        <v>0.56338</v>
       </c>
       <c r="I158" t="n">
-        <v>0.08137</v>
+        <v>0.03099</v>
       </c>
     </row>
     <row r="159">
@@ -6792,10 +6792,10 @@
         </is>
       </c>
       <c r="H159" t="n">
-        <v>0.25273</v>
+        <v>0.00581</v>
       </c>
       <c r="I159" t="n">
-        <v>0.08586000000000001</v>
+        <v>0.0158</v>
       </c>
     </row>
     <row r="160">
@@ -6833,10 +6833,10 @@
         </is>
       </c>
       <c r="H160" t="n">
-        <v>0.48769</v>
+        <v>0.57165</v>
       </c>
       <c r="I160" t="n">
-        <v>0.08149000000000001</v>
+        <v>0.0273</v>
       </c>
     </row>
     <row r="161">
@@ -6874,10 +6874,10 @@
         </is>
       </c>
       <c r="H161" t="n">
-        <v>0.23443</v>
+        <v>0.00678</v>
       </c>
       <c r="I161" t="n">
-        <v>0.07945000000000001</v>
+        <v>0.01616</v>
       </c>
     </row>
   </sheetData>
